--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H2">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N2">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q2">
-        <v>81.61451317794494</v>
+        <v>181.106102550166</v>
       </c>
       <c r="R2">
-        <v>81.61451317794494</v>
+        <v>1629.954922951494</v>
       </c>
       <c r="S2">
-        <v>0.01626464114481015</v>
+        <v>0.0276298376092645</v>
       </c>
       <c r="T2">
-        <v>0.01626464114481015</v>
+        <v>0.0276298376092645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H3">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N3">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q3">
-        <v>899.3412784831786</v>
+        <v>1858.24515547062</v>
       </c>
       <c r="R3">
-        <v>899.3412784831786</v>
+        <v>16724.20639923558</v>
       </c>
       <c r="S3">
-        <v>0.1792262502301676</v>
+        <v>0.2834968626727185</v>
       </c>
       <c r="T3">
-        <v>0.1792262502301676</v>
+        <v>0.2834968626727185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H4">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N4">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q4">
-        <v>296.5603265900885</v>
+        <v>634.7409255003691</v>
       </c>
       <c r="R4">
-        <v>296.5603265900885</v>
+        <v>5712.668329503321</v>
       </c>
       <c r="S4">
-        <v>0.0591003622022333</v>
+        <v>0.09683709410438845</v>
       </c>
       <c r="T4">
-        <v>0.0591003622022333</v>
+        <v>0.09683709410438845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H5">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N5">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O5">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P5">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q5">
-        <v>147.3386803955491</v>
+        <v>162.9483028624763</v>
       </c>
       <c r="R5">
-        <v>147.3386803955491</v>
+        <v>1466.534725762286</v>
       </c>
       <c r="S5">
-        <v>0.02936255660998138</v>
+        <v>0.02485965455276891</v>
       </c>
       <c r="T5">
-        <v>0.02936255660998138</v>
+        <v>0.02485965455276891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H6">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N6">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O6">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P6">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q6">
-        <v>1623.580807350398</v>
+        <v>1671.93645118878</v>
       </c>
       <c r="R6">
-        <v>1623.580807350398</v>
+        <v>15047.42806069902</v>
       </c>
       <c r="S6">
-        <v>0.3235571490033886</v>
+        <v>0.255073307795136</v>
       </c>
       <c r="T6">
-        <v>0.3235571490033886</v>
+        <v>0.255073307795136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H7">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N7">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O7">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P7">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q7">
-        <v>535.3803567043091</v>
+        <v>571.1014433596611</v>
       </c>
       <c r="R7">
-        <v>535.3803567043091</v>
+        <v>5139.912990236949</v>
       </c>
       <c r="S7">
-        <v>0.1066938837065707</v>
+        <v>0.08712815259261143</v>
       </c>
       <c r="T7">
-        <v>0.1066938837065707</v>
+        <v>0.08712815259261142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H8">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N8">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O8">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P8">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q8">
-        <v>91.61757243356901</v>
+        <v>99.87249457752047</v>
       </c>
       <c r="R8">
-        <v>91.61757243356901</v>
+        <v>898.8524511976842</v>
       </c>
       <c r="S8">
-        <v>0.01825811219313055</v>
+        <v>0.01523670802890076</v>
       </c>
       <c r="T8">
-        <v>0.01825811219313055</v>
+        <v>0.01523670802890076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H9">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N9">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O9">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P9">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q9">
-        <v>1009.568782751709</v>
+        <v>1024.74503398932</v>
       </c>
       <c r="R9">
-        <v>1009.568782751709</v>
+        <v>9222.705305903881</v>
       </c>
       <c r="S9">
-        <v>0.2011930638691436</v>
+        <v>0.1563367466989819</v>
       </c>
       <c r="T9">
-        <v>0.2011930638691436</v>
+        <v>0.1563367466989819</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H10">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N10">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O10">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P10">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q10">
-        <v>332.9081574382609</v>
+        <v>350.033260875934</v>
       </c>
       <c r="R10">
-        <v>332.9081574382609</v>
+        <v>3150.299347883406</v>
       </c>
       <c r="S10">
-        <v>0.06634398104057419</v>
+        <v>0.05340163594522954</v>
       </c>
       <c r="T10">
-        <v>0.06634398104057419</v>
+        <v>0.05340163594522954</v>
       </c>
     </row>
   </sheetData>
